--- a/data/specimen/earth.xlsx
+++ b/data/specimen/earth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myDataBase\cyanus\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myDataBase\cyanus\data\specimen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C235F9BC-2F47-4698-B9B4-6AF94EB6515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1F308-3E92-434E-BEFC-52ABFD4C407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EB2E967-F590-4419-A1AA-9B2E7F442ED6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3EB2E967-F590-4419-A1AA-9B2E7F442ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -29,28 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>Element</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[2] Kenneth Barbalace. Periodic Table of Elements. EnvironmentalChemistry.com. 1995 - 2023. Accessed on-line: 1/26/2023 https://EnvironmentalChemistry.com/yogi/periodic/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3] https://www.webelements.com/periodicity/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4] https://www.science.co.il/elements/?s=Earth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5] https://education.jlab.org/itselemental/index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -323,6 +307,10 @@
   </si>
   <si>
     <t>https://www.science.co.il/elements/?s=Earth</t>
+  </si>
+  <si>
+    <t>mass_g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -694,54 +682,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BE8DB0-21D3-494F-8A7B-5548B4F81FFB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +744,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -766,12 +754,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.47399999999999998</v>
@@ -779,7 +767,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.27710000000000001</v>
@@ -787,7 +775,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>8.199999999999999E-2</v>
@@ -795,7 +783,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4.0999999999999995E-2</v>
@@ -803,7 +791,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>4.0999999999999995E-2</v>
@@ -811,7 +799,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2.3E-2</v>
@@ -819,7 +807,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2.1000000000000001E-2</v>
@@ -827,7 +815,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2.3E-2</v>
@@ -835,7 +823,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5.6000000000000008E-3</v>
@@ -843,7 +831,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -851,7 +839,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1E-3</v>
@@ -859,7 +847,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>9.5E-4</v>
@@ -867,7 +855,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>9.5E-4</v>
@@ -875,7 +863,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>4.2499999999999998E-4</v>
@@ -883,7 +871,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>4.8000000000000001E-4</v>
@@ -891,7 +879,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>3.6999999999999999E-4</v>
@@ -899,7 +887,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2.5999999999999998E-4</v>
@@ -907,7 +895,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1.9000000000000001E-4</v>
@@ -915,7 +903,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1.606E-4</v>
@@ -923,7 +911,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1.6000000000000001E-4</v>
@@ -931,7 +919,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1.2999999999999999E-4</v>
@@ -939,7 +927,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1E-4</v>
@@ -947,7 +935,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>9.0000000000000006E-5</v>
@@ -955,7 +943,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>8.0000000000000007E-5</v>
@@ -963,7 +951,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>7.4999999999999993E-5</v>
@@ -971,7 +959,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>5.0000000000000002E-5</v>
@@ -979,7 +967,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>6.7999999999999999E-5</v>
@@ -987,7 +975,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>3.8000000000000002E-5</v>
@@ -995,7 +983,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>3.1999999999999999E-5</v>
@@ -1003,7 +991,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>3.0000000000000001E-5</v>
@@ -1011,7 +999,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>2.5000000000000001E-5</v>
@@ -1019,7 +1007,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2.0000000000000002E-5</v>
@@ -1027,7 +1015,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2.0000000000000002E-5</v>
@@ -1035,7 +1023,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2.0000000000000002E-5</v>
@@ -1043,7 +1031,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>1.8E-5</v>
@@ -1051,7 +1039,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1.5999999999999999E-5</v>
@@ -1059,7 +1047,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1.4E-5</v>
@@ -1067,7 +1055,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>7.9000000000000006E-6</v>
@@ -1075,7 +1063,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>1.2E-5</v>
@@ -1083,7 +1071,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>9.5000000000000005E-6</v>
@@ -1091,7 +1079,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>9.5E-4</v>
@@ -1099,7 +1087,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>7.7000000000000008E-6</v>
@@ -1107,7 +1095,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>6.0000000000000002E-6</v>
@@ -1115,7 +1103,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>5.3000000000000001E-6</v>
@@ -1123,7 +1111,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>3.7999999999999996E-6</v>
@@ -1131,7 +1119,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>3.2999999999999997E-6</v>
@@ -1139,7 +1127,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>3.0000000000000001E-6</v>
@@ -1147,7 +1135,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2.6000000000000001E-6</v>
@@ -1155,7 +1143,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>2.2000000000000001E-6</v>
@@ -1163,7 +1151,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>2.1000000000000002E-6</v>
@@ -1171,7 +1159,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1179,7 +1167,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>1.9999999999999999E-6</v>
@@ -1187,7 +1175,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>1.8000000000000001E-6</v>
@@ -1195,7 +1183,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>1.5E-6</v>
@@ -1203,7 +1191,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>1.5E-6</v>
@@ -1211,7 +1199,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>1.3999999999999999E-6</v>
@@ -1219,7 +1207,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>1.1000000000000001E-6</v>
@@ -1227,7 +1215,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>5.2E-7</v>
@@ -1235,7 +1223,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>3.7E-7</v>
@@ -1243,7 +1231,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>5.9999999999999997E-7</v>
@@ -1251,7 +1239,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>2.0000000000000002E-7</v>
@@ -1259,7 +1247,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>1.4000000000000001E-7</v>
@@ -1267,7 +1255,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>1.1000000000000001E-7</v>
@@ -1275,7 +1263,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>7.0000000000000005E-8</v>
@@ -1283,7 +1271,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>5.0000000000000004E-8</v>
@@ -1291,7 +1279,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>5.0000000000000004E-8</v>
@@ -1299,7 +1287,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>4.9000000000000002E-8</v>
@@ -1307,7 +1295,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>4.8E-8</v>
@@ -1315,7 +1303,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>5.0000000000000001E-9</v>
@@ -1323,7 +1311,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>3E-9</v>
@@ -1331,7 +1319,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>1.1000000000000001E-9</v>
@@ -1339,7 +1327,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>1.0000000000000001E-9</v>
@@ -1347,7 +1335,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>6E-10</v>
@@ -1355,7 +1343,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>4.0000000000000001E-10</v>
@@ -1363,7 +1351,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>2.0000000000000001E-10</v>
@@ -1371,7 +1359,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>1E-10</v>
@@ -1379,7 +1367,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>2.9999999999999998E-13</v>
@@ -1396,7 +1384,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1406,12 +1394,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.46</v>
@@ -1419,7 +1407,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.27</v>
@@ -1427,7 +1415,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>8.199999999999999E-2</v>
@@ -1435,7 +1423,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>6.3E-2</v>
@@ -1443,7 +1431,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
@@ -1451,7 +1439,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2.3E-2</v>
@@ -1459,7 +1447,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1467,7 +1455,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2.8999999999999998E-2</v>
@@ -1475,7 +1463,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>6.6E-3</v>
@@ -1483,7 +1471,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1.5E-3</v>
@@ -1491,7 +1479,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1E-3</v>
@@ -1499,7 +1487,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1.1000000000000001E-3</v>
@@ -1507,7 +1495,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>5.4000000000000001E-4</v>
@@ -1515,7 +1503,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>5.0000000000000001E-4</v>
@@ -1523,7 +1511,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1.8E-3</v>
@@ -1531,7 +1519,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>3.6000000000000002E-4</v>
@@ -1539,7 +1527,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>4.2000000000000002E-4</v>
@@ -1547,7 +1535,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1.2999999999999999E-4</v>
@@ -1555,7 +1543,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1.9000000000000001E-4</v>
@@ -1563,7 +1551,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1.9000000000000001E-4</v>
@@ -1571,7 +1559,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1.7000000000000001E-4</v>
@@ -1579,7 +1567,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1.3999999999999999E-4</v>
@@ -1587,7 +1575,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>6.0000000000000002E-5</v>
@@ -1595,7 +1583,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>9.0000000000000006E-5</v>
@@ -1603,7 +1591,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>7.8999999999999996E-5</v>
@@ -1611,7 +1599,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>6.7999999999999999E-5</v>
@@ -1619,7 +1607,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>6.0000000000000002E-5</v>
@@ -1627,7 +1615,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>3.3000000000000003E-5</v>
@@ -1635,7 +1623,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>3.4E-5</v>
@@ -1643,7 +1631,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>2.9E-5</v>
@@ -1651,7 +1639,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>2.0000000000000002E-5</v>
@@ -1659,7 +1647,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>3.0000000000000001E-5</v>
@@ -1667,7 +1655,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>1.7E-5</v>
@@ -1675,7 +1663,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>1.7E-5</v>
@@ -1683,7 +1671,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>1.9000000000000001E-5</v>
@@ -1691,7 +1679,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>2.5999999999999998E-5</v>
@@ -1699,7 +1687,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1707,7 +1695,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>6.0000000000000002E-6</v>
@@ -1715,7 +1703,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>6.0000000000000002E-6</v>
@@ -1723,7 +1711,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>8.6999999999999997E-6</v>
@@ -1731,7 +1719,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>8.6999999999999997E-6</v>
@@ -1739,7 +1727,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>5.2000000000000002E-6</v>
@@ -1747,7 +1735,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>6.1999999999999999E-6</v>
@@ -1755,7 +1743,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>3.2999999999999997E-6</v>
@@ -1763,7 +1751,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>3.0000000000000001E-6</v>
@@ -1771,7 +1759,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>2.7999999999999999E-6</v>
@@ -1779,7 +1767,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>1.8999999999999998E-6</v>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>1.8999999999999998E-6</v>
@@ -1795,7 +1783,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>2.2000000000000001E-6</v>
@@ -1803,7 +1791,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>1.8000000000000001E-6</v>
@@ -1811,7 +1799,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>1.8000000000000001E-6</v>
@@ -1819,7 +1807,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>1.7E-6</v>
@@ -1827,7 +1815,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>1.3999999999999999E-6</v>
@@ -1835,7 +1823,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>1.1000000000000001E-6</v>
@@ -1843,7 +1831,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>2.1000000000000002E-6</v>
@@ -1851,7 +1839,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>1.1999999999999999E-6</v>
@@ -1859,7 +1847,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>9.3999999999999989E-7</v>
@@ -1867,7 +1855,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>4.5000000000000003E-7</v>
@@ -1875,7 +1863,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>3.0000000000000001E-6</v>
@@ -1883,7 +1871,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>5.3000000000000001E-7</v>
@@ -1891,7 +1879,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>2.0000000000000002E-7</v>
@@ -1899,7 +1887,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>4.8999999999999997E-7</v>
@@ -1907,7 +1895,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>1.4999999999999999E-7</v>
@@ -1915,7 +1903,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>8.0000000000000002E-8</v>
@@ -1923,7 +1911,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>6.7000000000000004E-8</v>
@@ -1931,7 +1919,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>5.0000000000000004E-8</v>
@@ -1939,7 +1927,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>1.6E-7</v>
@@ -1947,7 +1935,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>2.5000000000000002E-8</v>
@@ -1955,7 +1943,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>1.0000000000000001E-9</v>
@@ -1963,7 +1951,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>3.7E-8</v>
@@ -1971,7 +1959,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>3.1E-9</v>
@@ -1979,7 +1967,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>1.0000000000000001E-9</v>
@@ -1987,7 +1975,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>6.3000000000000002E-9</v>
@@ -1995,7 +1983,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>2.5999999999999997E-9</v>
@@ -2003,7 +1991,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>6.9999999999999996E-10</v>
@@ -2011,7 +1999,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>1.8E-9</v>
@@ -2019,7 +2007,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>4.0000000000000001E-10</v>
@@ -2036,7 +2024,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2046,12 +2034,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.46710000000000002</v>
@@ -2059,7 +2047,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.27690000000000003</v>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>8.0700000000000008E-2</v>
@@ -2075,7 +2063,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>5.0499999999999996E-2</v>
@@ -2083,7 +2071,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>3.6499999999999998E-2</v>
@@ -2091,7 +2079,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2.75E-2</v>
@@ -2099,7 +2087,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2.58E-2</v>
@@ -2107,7 +2095,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2.0799999999999999E-2</v>
@@ -2115,7 +2103,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>6.1999999999999998E-3</v>
@@ -2123,7 +2111,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1.4000000000000002E-3</v>
@@ -2131,7 +2119,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1.2999999999999999E-3</v>
@@ -2139,7 +2127,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>8.9999999999999998E-4</v>
@@ -2147,7 +2135,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2.9E-4</v>
@@ -2155,7 +2143,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>3.4000000000000002E-4</v>
@@ -2163,7 +2151,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>9.3999999999999997E-4</v>
@@ -2171,7 +2159,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2179,7 +2167,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>5.1999999999999995E-4</v>
@@ -2187,7 +2175,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>2.5000000000000001E-4</v>
@@ -2195,7 +2183,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2203,7 +2191,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2211,7 +2199,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>4.4999999999999999E-4</v>
@@ -2219,7 +2207,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>3.5E-4</v>
@@ -2227,7 +2215,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2235,7 +2223,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1.9000000000000001E-4</v>
@@ -2243,7 +2231,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2251,7 +2239,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2259,7 +2247,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2267,7 +2255,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2275,7 +2263,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2283,7 +2271,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2291,7 +2279,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2299,7 +2287,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2307,7 +2295,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2315,7 +2303,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -2323,7 +2311,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2331,7 +2319,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2339,7 +2327,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -2347,7 +2335,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2355,7 +2343,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2363,7 +2351,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2371,7 +2359,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2379,7 +2367,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2387,7 +2375,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2395,7 +2383,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -2403,7 +2391,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -2411,7 +2399,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -2419,7 +2407,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -2427,7 +2415,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -2435,7 +2423,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -2443,7 +2431,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -2451,7 +2439,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -2459,7 +2447,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -2467,7 +2455,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -2475,7 +2463,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -2483,7 +2471,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -2491,7 +2479,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2499,7 +2487,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2507,7 +2495,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -2515,7 +2503,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2523,7 +2511,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -2531,7 +2519,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2539,7 +2527,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2547,7 +2535,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2555,7 +2543,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2563,7 +2551,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -2571,7 +2559,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -2579,7 +2567,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -2587,7 +2575,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -2595,7 +2583,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -2603,7 +2591,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -2611,7 +2599,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -2619,7 +2607,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -2627,7 +2615,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -2635,7 +2623,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2643,7 +2631,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2651,7 +2639,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2659,7 +2647,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2675,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F07C8E-E7E4-4A6E-942D-058F49CFC791}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2686,12 +2674,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.46100000000000002</v>
@@ -2699,7 +2687,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.28199999999999997</v>
@@ -2707,7 +2695,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>8.2299999999999998E-2</v>
@@ -2715,7 +2703,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>5.6299999999999996E-2</v>
@@ -2723,7 +2711,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>4.1500000000000002E-2</v>
@@ -2731,7 +2719,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2.3599999999999999E-2</v>
@@ -2739,7 +2727,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2.0899999999999998E-2</v>
@@ -2747,7 +2735,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2.3300000000000001E-2</v>
@@ -2755,7 +2743,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5.6000000000000008E-3</v>
@@ -2763,7 +2751,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1.4000000000000002E-3</v>
@@ -2771,7 +2759,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1.0499999999999999E-3</v>
@@ -2779,7 +2767,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>9.5E-4</v>
@@ -2787,7 +2775,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>5.8500000000000002E-4</v>
@@ -2795,7 +2783,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>4.2499999999999998E-4</v>
@@ -2803,7 +2791,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2.0000000000000001E-4</v>
@@ -2811,7 +2799,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>3.6999999999999999E-4</v>
@@ -2819,7 +2807,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>3.5E-4</v>
@@ -2827,7 +2815,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1.65E-4</v>
@@ -2835,7 +2823,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1.2500000000000001E-6</v>
@@ -2843,7 +2831,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1.2E-4</v>
@@ -2851,7 +2839,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1.45E-4</v>
@@ -2859,7 +2847,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1.02E-4</v>
@@ -2867,7 +2855,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>9.0000000000000006E-5</v>
@@ -2875,7 +2863,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>8.3999999999999995E-5</v>
@@ -2883,7 +2871,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>6.9999999999999994E-5</v>
@@ -2891,7 +2879,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>6.0000000000000002E-5</v>
@@ -2899,7 +2887,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>6.6500000000000004E-5</v>
@@ -2907,7 +2895,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>4.1499999999999999E-5</v>
@@ -2915,7 +2903,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>3.8999999999999999E-5</v>
@@ -2923,7 +2911,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>3.3000000000000003E-5</v>
@@ -2931,7 +2919,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1.9000000000000001E-5</v>
@@ -2939,7 +2927,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2.5000000000000001E-5</v>
@@ -2947,7 +2935,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2.0000000000000002E-5</v>
@@ -2955,7 +2943,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2.0000000000000002E-5</v>
@@ -2963,7 +2951,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>1.9000000000000001E-5</v>
@@ -2971,7 +2959,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>2.1999999999999999E-5</v>
@@ -2979,7 +2967,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1.4E-5</v>
@@ -2987,7 +2975,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>7.0500000000000001E-4</v>
@@ -2995,7 +2983,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>9.5999999999999996E-6</v>
@@ -3003,7 +2991,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>9.2E-6</v>
@@ -3011,7 +2999,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3019,7 +3007,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>6.1999999999999999E-6</v>
@@ -3027,7 +3015,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>5.2000000000000002E-6</v>
@@ -3035,7 +3023,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>3.0000000000000001E-6</v>
@@ -3043,7 +3031,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>3.4999999999999999E-6</v>
@@ -3051,7 +3039,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>3.2000000000000003E-6</v>
@@ -3059,7 +3047,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>3.0000000000000001E-6</v>
@@ -3067,7 +3055,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2.7999999999999999E-6</v>
@@ -3075,7 +3063,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>2.3E-6</v>
@@ -3083,7 +3071,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>1.9999999999999999E-6</v>
@@ -3091,7 +3079,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>2.7E-6</v>
@@ -3099,7 +3087,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>1.9999999999999999E-6</v>
@@ -3107,7 +3095,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>1.5E-6</v>
@@ -3115,7 +3103,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>1.1999999999999999E-6</v>
@@ -3123,7 +3111,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>1.8000000000000001E-6</v>
@@ -3131,7 +3119,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>1.3E-6</v>
@@ -3139,7 +3127,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>1.1999999999999999E-6</v>
@@ -3147,7 +3135,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>5.2E-7</v>
@@ -3155,7 +3143,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>2.3999999999999999E-6</v>
@@ -3163,7 +3151,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>8.5000000000000001E-7</v>
@@ -3171,7 +3159,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>2.0000000000000002E-7</v>
@@ -3179,7 +3167,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>4.5000000000000003E-7</v>
@@ -3187,7 +3175,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>1.4999999999999999E-7</v>
@@ -3195,7 +3183,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>7.4999999999999997E-8</v>
@@ -3203,7 +3191,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>8.5000000000000007E-8</v>
@@ -3211,7 +3199,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>5.0000000000000004E-8</v>
@@ -3219,7 +3207,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>2.4999999999999999E-7</v>
@@ -3227,7 +3215,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>8.5E-9</v>
@@ -3235,7 +3223,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3243,7 +3231,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>5.0000000000000001E-9</v>
@@ -3251,7 +3239,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>4.0000000000000002E-9</v>
@@ -3259,7 +3247,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3267,7 +3255,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>1.4999999999999999E-8</v>
@@ -3275,7 +3263,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>6.9999999999999996E-10</v>
@@ -3283,7 +3271,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>1.0000000000000001E-9</v>
@@ -3291,7 +3279,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>1.5E-9</v>
@@ -3299,7 +3287,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>1.0000000000000001E-9</v>
